--- a/summary_statistics_multi.xlsx
+++ b/summary_statistics_multi.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="svm" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="nn" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cah" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="kmeans" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -974,4 +976,3045 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>cah</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>friend_nb_mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>listed_nb_mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>follower_nb_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>favorites_nb_mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>len_description_mean</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_nb_mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_user_count_mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>user_lifetime_mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>aggressivity_mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>visibility_mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ff_ratio_mean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>friend_nb_median</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>listed_nb_median</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>follower_nb_median</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>favorites_nb_median</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>len_description_median</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_nb_median</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_user_count_median</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>user_lifetime_median</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>aggressivity_median</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>visibility_median</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ff_ratio_median</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2565.366271192816</v>
+      </c>
+      <c r="C2" t="n">
+        <v>103.365583302211</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3241.890850474193</v>
+      </c>
+      <c r="E2" t="n">
+        <v>115229.6689236123</v>
+      </c>
+      <c r="F2" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>578549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2041.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>326.2558352265454</v>
+      </c>
+      <c r="K2" t="n">
+        <v>30.35174020402282</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6825147284625774</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1403.990248478822</v>
+      </c>
+      <c r="N2" t="n">
+        <v>120.0194213604186</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2511.502429741696</v>
+      </c>
+      <c r="P2" t="n">
+        <v>18268.97773642129</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>115</v>
+      </c>
+      <c r="R2" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>398485</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2465</v>
+      </c>
+      <c r="U2" t="n">
+        <v>322.1052205764289</v>
+      </c>
+      <c r="V2" t="n">
+        <v>28.69793261832043</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6108329667001405</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23242.48832487309</v>
+      </c>
+      <c r="C3" t="n">
+        <v>523.4071065989848</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21125.73401015229</v>
+      </c>
+      <c r="E3" t="n">
+        <v>41411.84060913706</v>
+      </c>
+      <c r="F3" t="n">
+        <v>160</v>
+      </c>
+      <c r="G3" t="n">
+        <v>985</v>
+      </c>
+      <c r="H3" t="n">
+        <v>854298</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1079</v>
+      </c>
+      <c r="J3" t="n">
+        <v>813.2905359822735</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32.96335025380711</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.100197906198363</v>
+      </c>
+      <c r="M3" t="n">
+        <v>23242.48832487309</v>
+      </c>
+      <c r="N3" t="n">
+        <v>523.4071065989848</v>
+      </c>
+      <c r="O3" t="n">
+        <v>21125.73401015229</v>
+      </c>
+      <c r="P3" t="n">
+        <v>41411.84060913706</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>160</v>
+      </c>
+      <c r="R3" t="n">
+        <v>985</v>
+      </c>
+      <c r="S3" t="n">
+        <v>854298</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1079</v>
+      </c>
+      <c r="U3" t="n">
+        <v>813.2905359822735</v>
+      </c>
+      <c r="V3" t="n">
+        <v>32.96335025380711</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.100197906198363</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1899.308590903069</v>
+      </c>
+      <c r="C4" t="n">
+        <v>99.56432564713909</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4467.660199919932</v>
+      </c>
+      <c r="E4" t="n">
+        <v>88646.37164724368</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75.52808988764045</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.273408239700374</v>
+      </c>
+      <c r="H4" t="n">
+        <v>182519.5655430712</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1932.850187265918</v>
+      </c>
+      <c r="J4" t="n">
+        <v>111.3798118855262</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.38621081373297</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7662883582984044</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1027.125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>54</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2195.583333333333</v>
+      </c>
+      <c r="P4" t="n">
+        <v>80258</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>169951</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1913</v>
+      </c>
+      <c r="U4" t="n">
+        <v>103.2583198051948</v>
+      </c>
+      <c r="V4" t="n">
+        <v>29.3325</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5016233766233766</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6428.115156771742</v>
+      </c>
+      <c r="C5" t="n">
+        <v>206.7823546177041</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11903.72958624908</v>
+      </c>
+      <c r="E5" t="n">
+        <v>166011.2019792036</v>
+      </c>
+      <c r="F5" t="n">
+        <v>88.87096774193549</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.247311827956989</v>
+      </c>
+      <c r="H5" t="n">
+        <v>253050.5698924731</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1640.118279569892</v>
+      </c>
+      <c r="J5" t="n">
+        <v>210.3593377024911</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35.1688642883401</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.125451975604726</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2342</v>
+      </c>
+      <c r="N5" t="n">
+        <v>70</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3226.777777777778</v>
+      </c>
+      <c r="P5" t="n">
+        <v>165539.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>95</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>239877</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1563</v>
+      </c>
+      <c r="U5" t="n">
+        <v>180.5404761904762</v>
+      </c>
+      <c r="V5" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.7282391668015757</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2872.218112868315</v>
+      </c>
+      <c r="C6" t="n">
+        <v>280.4375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4474.207187950938</v>
+      </c>
+      <c r="E6" t="n">
+        <v>179960.4330371689</v>
+      </c>
+      <c r="F6" t="n">
+        <v>88.95833333333333</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="H6" t="n">
+        <v>603829.6666666666</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2211.541666666667</v>
+      </c>
+      <c r="J6" t="n">
+        <v>343.2195105428254</v>
+      </c>
+      <c r="K6" t="n">
+        <v>28.24746770702416</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9949449111742137</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2387.064935064935</v>
+      </c>
+      <c r="N6" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2329</v>
+      </c>
+      <c r="P6" t="n">
+        <v>160810</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>509030</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2195</v>
+      </c>
+      <c r="U6" t="n">
+        <v>258.3554107408262</v>
+      </c>
+      <c r="V6" t="n">
+        <v>26.705</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8852888415989084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1154</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2928.75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1526.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1251</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.431524428392674</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26.9325</v>
+      </c>
+      <c r="L7" t="n">
+        <v>709.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1154</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2928.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1526.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1251</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7.431524428392674</v>
+      </c>
+      <c r="V7" t="n">
+        <v>26.9325</v>
+      </c>
+      <c r="W7" t="n">
+        <v>709.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32.18367346938776</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="E8" t="n">
+        <v>71.63265306122449</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>49</v>
+      </c>
+      <c r="H8" t="n">
+        <v>362</v>
+      </c>
+      <c r="I8" t="n">
+        <v>435</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9061693642974431</v>
+      </c>
+      <c r="K8" t="n">
+        <v>35.95591836734694</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1577</v>
+      </c>
+      <c r="M8" t="n">
+        <v>32.18367346938776</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="P8" t="n">
+        <v>71.63265306122449</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>49</v>
+      </c>
+      <c r="S8" t="n">
+        <v>362</v>
+      </c>
+      <c r="T8" t="n">
+        <v>435</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.9061693642974431</v>
+      </c>
+      <c r="V8" t="n">
+        <v>35.95591836734694</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>393.4979570385659</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.121136719795131</v>
+      </c>
+      <c r="E9" t="n">
+        <v>771.5201544165424</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30.2962962962963</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.37037037037037</v>
+      </c>
+      <c r="H9" t="n">
+        <v>982</v>
+      </c>
+      <c r="I9" t="n">
+        <v>295.3333333333333</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.31188969854414</v>
+      </c>
+      <c r="K9" t="n">
+        <v>25.55513555402668</v>
+      </c>
+      <c r="L9" t="n">
+        <v>155.5536143281474</v>
+      </c>
+      <c r="M9" t="n">
+        <v>151</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>69</v>
+      </c>
+      <c r="T9" t="n">
+        <v>101</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="V9" t="n">
+        <v>25.655</v>
+      </c>
+      <c r="W9" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>239.2845060412224</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08208955223880597</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.419367448471926</v>
+      </c>
+      <c r="E10" t="n">
+        <v>678.5682302771855</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.88059701492537</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.664179104477612</v>
+      </c>
+      <c r="H10" t="n">
+        <v>699.2164179104477</v>
+      </c>
+      <c r="I10" t="n">
+        <v>303.7089552238806</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.949663115513652</v>
+      </c>
+      <c r="K10" t="n">
+        <v>32.03912686567165</v>
+      </c>
+      <c r="L10" t="n">
+        <v>69.85778158942082</v>
+      </c>
+      <c r="M10" t="n">
+        <v>86</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.681099397590361</v>
+      </c>
+      <c r="V10" t="n">
+        <v>31.225</v>
+      </c>
+      <c r="W10" t="n">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>420.5238997871645</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.560816047150631</v>
+      </c>
+      <c r="D11" t="n">
+        <v>366.976910498941</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3283.86938111577</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.36668431268749</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.018881242279866</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3238.800070584083</v>
+      </c>
+      <c r="I11" t="n">
+        <v>742.0728780659961</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.710478458578916</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.1262734657114</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.784744831104954</v>
+      </c>
+      <c r="M11" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>117</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1253</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>20</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1246</v>
+      </c>
+      <c r="T11" t="n">
+        <v>666</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3.089219330855018</v>
+      </c>
+      <c r="V11" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.714285714285714</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>277.1132618484091</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1078745198463508</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.32845382672527</v>
+      </c>
+      <c r="E12" t="n">
+        <v>838.3081858922128</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13.60179257362356</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.526248399487836</v>
+      </c>
+      <c r="H12" t="n">
+        <v>716.4878361075545</v>
+      </c>
+      <c r="I12" t="n">
+        <v>385.1331626120358</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.731650942711868</v>
+      </c>
+      <c r="K12" t="n">
+        <v>29.38121657816504</v>
+      </c>
+      <c r="L12" t="n">
+        <v>23.07205330483261</v>
+      </c>
+      <c r="M12" t="n">
+        <v>123</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>78</v>
+      </c>
+      <c r="T12" t="n">
+        <v>221</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.382352941176471</v>
+      </c>
+      <c r="V12" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="W12" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>294.7427873807306</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.244746519569214</v>
+      </c>
+      <c r="D13" t="n">
+        <v>254.1958216669505</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3312.65328136745</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19.69936958234831</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2800.966509062254</v>
+      </c>
+      <c r="I13" t="n">
+        <v>542.8396375098503</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.583541617745323</v>
+      </c>
+      <c r="K13" t="n">
+        <v>40.51081024362216</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.123956888688457</v>
+      </c>
+      <c r="M13" t="n">
+        <v>160</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>83.125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>998.0714285714286</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>942.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>466</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.377212546732093</v>
+      </c>
+      <c r="V13" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.77453132916737</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>686.8414235828898</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.24526809814985</v>
+      </c>
+      <c r="D14" t="n">
+        <v>914.9636315462481</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4803.351240572076</v>
+      </c>
+      <c r="F14" t="n">
+        <v>78.82424392662369</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.802181457610312</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12759.37803668815</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2600.052305404065</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.114875979133387</v>
+      </c>
+      <c r="K14" t="n">
+        <v>18.54390548458868</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.902365023410558</v>
+      </c>
+      <c r="M14" t="n">
+        <v>453.1666666666666</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>375</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2005.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>78</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7254.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2627.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3.128107461812503</v>
+      </c>
+      <c r="V14" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.203104916452442</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>525.9647207995658</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.774249433847864</v>
+      </c>
+      <c r="D15" t="n">
+        <v>559.0367695750811</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3564.857650291563</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22.09932769464324</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.280850140967252</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9638.255692908262</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2666.946432444155</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.817878451977166</v>
+      </c>
+      <c r="K15" t="n">
+        <v>21.41282869405796</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.036144794114628</v>
+      </c>
+      <c r="M15" t="n">
+        <v>353</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>271</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1483.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>19</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5704</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2639</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.399361022364217</v>
+      </c>
+      <c r="V15" t="n">
+        <v>20.965</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.294117647058824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>799.5240699088494</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.60859116373823</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1683.219848970474</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4236.29246855269</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.13235294117646</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.786764705882353</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9379.072058823529</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1579.366176470588</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.212396674535927</v>
+      </c>
+      <c r="K16" t="n">
+        <v>71.45223680779785</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.493419110210521</v>
+      </c>
+      <c r="M16" t="n">
+        <v>395</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.363636363636363</v>
+      </c>
+      <c r="O16" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1002.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>107</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2449.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1578.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3.371187752169347</v>
+      </c>
+      <c r="V16" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.309039032184433</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>722.6364644603001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>13.6155788306512</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1303.695110073131</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16918.49755400358</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22.40969162995595</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.915040906230334</v>
+      </c>
+      <c r="H17" t="n">
+        <v>39257.43045940843</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2080.679043423537</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20.06569206890978</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19.99915590795122</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.026151706871785</v>
+      </c>
+      <c r="M17" t="n">
+        <v>480</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>653</v>
+      </c>
+      <c r="P17" t="n">
+        <v>11877</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>21</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>33813</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2159</v>
+      </c>
+      <c r="U17" t="n">
+        <v>17.44711147274207</v>
+      </c>
+      <c r="V17" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.7139107611548556</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1395.91031086226</v>
+      </c>
+      <c r="C18" t="n">
+        <v>33.75854084753167</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2454.138592201207</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21597.45446262029</v>
+      </c>
+      <c r="F18" t="n">
+        <v>50.21406727828746</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.859327217125382</v>
+      </c>
+      <c r="H18" t="n">
+        <v>63668.47400611621</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2499.88379204893</v>
+      </c>
+      <c r="J18" t="n">
+        <v>29.35283210751674</v>
+      </c>
+      <c r="K18" t="n">
+        <v>41.58523388291966</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.045235994567516</v>
+      </c>
+      <c r="M18" t="n">
+        <v>659</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>988.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>14454.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>47</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>58800.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2566.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>24.77491111003929</v>
+      </c>
+      <c r="V18" t="n">
+        <v>34.4625</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.7456347209898355</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>526.7192557422287</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.744912866534488</v>
+      </c>
+      <c r="D19" t="n">
+        <v>567.0525061741278</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2990.741737103899</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23.69612856099343</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.358655953250548</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6626.45215485756</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2297.859751643535</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.247311964751994</v>
+      </c>
+      <c r="K19" t="n">
+        <v>49.8445318350994</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.501274955183399</v>
+      </c>
+      <c r="M19" t="n">
+        <v>312</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>201</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1087</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>19</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3372</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2311</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.833186231244484</v>
+      </c>
+      <c r="V19" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.573355817875211</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>522.5065488901091</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.818162197614472</v>
+      </c>
+      <c r="D20" t="n">
+        <v>580.8539661873823</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8590.843017433488</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.37091607943626</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.608263933376041</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12235.30365150544</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1846.604740550929</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.067887131191501</v>
+      </c>
+      <c r="K20" t="n">
+        <v>32.30425785311564</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.535021132334726</v>
+      </c>
+      <c r="M20" t="n">
+        <v>322</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3729.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>11</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7886</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1856.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4.693187220164723</v>
+      </c>
+      <c r="V20" t="n">
+        <v>33.47</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.018927633150227</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4530.86835682307</v>
+      </c>
+      <c r="C21" t="n">
+        <v>36.46472956685087</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6214.9685127847</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15130.7473043778</v>
+      </c>
+      <c r="F21" t="n">
+        <v>93</v>
+      </c>
+      <c r="G21" t="n">
+        <v>141.8095238095238</v>
+      </c>
+      <c r="H21" t="n">
+        <v>67949.47619047618</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1507.619047619048</v>
+      </c>
+      <c r="J21" t="n">
+        <v>47.13126211747203</v>
+      </c>
+      <c r="K21" t="n">
+        <v>33.94713605386081</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.95421461782795</v>
+      </c>
+      <c r="M21" t="n">
+        <v>652.1081081081081</v>
+      </c>
+      <c r="N21" t="n">
+        <v>28</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1488.716981132075</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3517.099378881987</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>78</v>
+      </c>
+      <c r="R21" t="n">
+        <v>131</v>
+      </c>
+      <c r="S21" t="n">
+        <v>29717</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1332</v>
+      </c>
+      <c r="U21" t="n">
+        <v>37.76362340439319</v>
+      </c>
+      <c r="V21" t="n">
+        <v>31.28656804733728</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.7553646517344</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1355.039843828693</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24.809030798146</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3569.520572418627</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13095.70220732829</v>
+      </c>
+      <c r="F22" t="n">
+        <v>92.59645232815964</v>
+      </c>
+      <c r="G22" t="n">
+        <v>29.47893569844789</v>
+      </c>
+      <c r="H22" t="n">
+        <v>36963.0066518847</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1652.339246119734</v>
+      </c>
+      <c r="J22" t="n">
+        <v>24.19315671452916</v>
+      </c>
+      <c r="K22" t="n">
+        <v>26.83714552566758</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.498725460380214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>654.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>848.695652173913</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4399.592592592592</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>102</v>
+      </c>
+      <c r="R22" t="n">
+        <v>25</v>
+      </c>
+      <c r="S22" t="n">
+        <v>18603</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1691</v>
+      </c>
+      <c r="U22" t="n">
+        <v>17.42458471760797</v>
+      </c>
+      <c r="V22" t="n">
+        <v>25.98775</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.9141924615708571</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1548.057003525049</v>
+      </c>
+      <c r="C23" t="n">
+        <v>57.63900786536865</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3495.015386693396</v>
+      </c>
+      <c r="E23" t="n">
+        <v>45635.61674933453</v>
+      </c>
+      <c r="F23" t="n">
+        <v>69.57625383828045</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.740020470829069</v>
+      </c>
+      <c r="H23" t="n">
+        <v>111269.275332651</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2427.418628454453</v>
+      </c>
+      <c r="J23" t="n">
+        <v>48.63485807047333</v>
+      </c>
+      <c r="K23" t="n">
+        <v>26.03882863668184</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.822289496954087</v>
+      </c>
+      <c r="M23" t="n">
+        <v>819</v>
+      </c>
+      <c r="N23" t="n">
+        <v>27</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1558.444444444444</v>
+      </c>
+      <c r="P23" t="n">
+        <v>36433.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>62</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>106614</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2478</v>
+      </c>
+      <c r="U23" t="n">
+        <v>45.80649188514357</v>
+      </c>
+      <c r="V23" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.5967346938775511</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1261.117758890232</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16.7589713807483</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1983.694297736117</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29184.29846566716</v>
+      </c>
+      <c r="F24" t="n">
+        <v>78.59153633854646</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.633854645814167</v>
+      </c>
+      <c r="H24" t="n">
+        <v>37168.31094756209</v>
+      </c>
+      <c r="I24" t="n">
+        <v>865.0634774609016</v>
+      </c>
+      <c r="J24" t="n">
+        <v>59.24614924477333</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.20292328059462</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.435501709428911</v>
+      </c>
+      <c r="M24" t="n">
+        <v>585</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>742</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24207</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>73</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>31793</v>
+      </c>
+      <c r="T24" t="n">
+        <v>819</v>
+      </c>
+      <c r="U24" t="n">
+        <v>50.56470588235294</v>
+      </c>
+      <c r="V24" t="n">
+        <v>29.52142857142857</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.8819672131147541</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>163669.9333333333</v>
+      </c>
+      <c r="C25" t="n">
+        <v>382</v>
+      </c>
+      <c r="D25" t="n">
+        <v>197272.4444444445</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4143.144444444445</v>
+      </c>
+      <c r="F25" t="n">
+        <v>87</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>361461.3333333333</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2394</v>
+      </c>
+      <c r="J25" t="n">
+        <v>256.2976814570179</v>
+      </c>
+      <c r="K25" t="n">
+        <v>23.64355555555555</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.8404955346120423</v>
+      </c>
+      <c r="M25" t="n">
+        <v>163408</v>
+      </c>
+      <c r="N25" t="n">
+        <v>463</v>
+      </c>
+      <c r="O25" t="n">
+        <v>210288.3333333333</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5652.6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>82</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>416576</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1957</v>
+      </c>
+      <c r="U25" t="n">
+        <v>327.6580253723111</v>
+      </c>
+      <c r="V25" t="n">
+        <v>27.55666666666666</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.793550291095431</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17610.23098754292</v>
+      </c>
+      <c r="C26" t="n">
+        <v>116.9529938681125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22854.6892433986</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16988.64462694169</v>
+      </c>
+      <c r="F26" t="n">
+        <v>97</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.529411764705882</v>
+      </c>
+      <c r="H26" t="n">
+        <v>45907.9477124183</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2224.862745098039</v>
+      </c>
+      <c r="J26" t="n">
+        <v>35.61118997992131</v>
+      </c>
+      <c r="K26" t="n">
+        <v>29.64010567190521</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.865869518618114</v>
+      </c>
+      <c r="M26" t="n">
+        <v>15248.69230769231</v>
+      </c>
+      <c r="N26" t="n">
+        <v>47</v>
+      </c>
+      <c r="O26" t="n">
+        <v>17676</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6380</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>100</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>29165</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2366</v>
+      </c>
+      <c r="U26" t="n">
+        <v>26.02631578947368</v>
+      </c>
+      <c r="V26" t="n">
+        <v>24.955</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.9236033142864312</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>54414.64219047619</v>
+      </c>
+      <c r="C27" t="n">
+        <v>470.8926857142857</v>
+      </c>
+      <c r="D27" t="n">
+        <v>72174.81120865801</v>
+      </c>
+      <c r="E27" t="n">
+        <v>48600.33806060606</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100.72</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="H27" t="n">
+        <v>96528.48</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1707.12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>116.7992816121648</v>
+      </c>
+      <c r="K27" t="n">
+        <v>29.54120727272727</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.8281499882229568</v>
+      </c>
+      <c r="M27" t="n">
+        <v>55640</v>
+      </c>
+      <c r="N27" t="n">
+        <v>102</v>
+      </c>
+      <c r="O27" t="n">
+        <v>67033</v>
+      </c>
+      <c r="P27" t="n">
+        <v>16469</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>114</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>57640</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1715</v>
+      </c>
+      <c r="U27" t="n">
+        <v>93.78078358208955</v>
+      </c>
+      <c r="V27" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.8302679709969563</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>636.807769343926</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.538056206088993</v>
+      </c>
+      <c r="D28" t="n">
+        <v>778.9576426929342</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6389.390889387884</v>
+      </c>
+      <c r="F28" t="n">
+        <v>113.250758955677</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.664238008500304</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6095.15239829994</v>
+      </c>
+      <c r="I28" t="n">
+        <v>723.1147540983607</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10.64719358669193</v>
+      </c>
+      <c r="K28" t="n">
+        <v>17.97752039278269</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.88211522200022</v>
+      </c>
+      <c r="M28" t="n">
+        <v>324</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>233</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2263.6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>113</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2348</v>
+      </c>
+      <c r="T28" t="n">
+        <v>701</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5.658415841584159</v>
+      </c>
+      <c r="V28" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.40752910251596</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>511.4101164034406</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.078931930652509</v>
+      </c>
+      <c r="D29" t="n">
+        <v>513.404878472067</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3571.66137833452</v>
+      </c>
+      <c r="F29" t="n">
+        <v>111.3331039229181</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.830006882312457</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3521.277357192017</v>
+      </c>
+      <c r="I29" t="n">
+        <v>773.4845147969718</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6.142302289199093</v>
+      </c>
+      <c r="K29" t="n">
+        <v>35.41347398500788</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.687006661303727</v>
+      </c>
+      <c r="M29" t="n">
+        <v>274</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>174</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1173.666666666667</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>114</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1547</v>
+      </c>
+      <c r="T29" t="n">
+        <v>747</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3.69814502529511</v>
+      </c>
+      <c r="V29" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>879.7019365331485</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23.76659663591828</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1421.150437318159</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4078.790764249301</v>
+      </c>
+      <c r="F30" t="n">
+        <v>111.4822154471545</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.704776422764228</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8982.588922764227</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2558.684959349594</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.945580993037927</v>
+      </c>
+      <c r="K30" t="n">
+        <v>37.99107960274538</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.733696243057985</v>
+      </c>
+      <c r="M30" t="n">
+        <v>488.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>413</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1809.666666666667</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>112</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6078</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2555</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.76063721756791</v>
+      </c>
+      <c r="V30" t="n">
+        <v>36.645</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.166400505787566</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1144.055048693972</v>
+      </c>
+      <c r="C31" t="n">
+        <v>44.93424594722797</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3694.65755482773</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9181.263857294347</v>
+      </c>
+      <c r="F31" t="n">
+        <v>138.295381654907</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.471456061577935</v>
+      </c>
+      <c r="H31" t="n">
+        <v>22578.80628608082</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2538.808851828095</v>
+      </c>
+      <c r="J31" t="n">
+        <v>9.371629800525236</v>
+      </c>
+      <c r="K31" t="n">
+        <v>22.11902529275671</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.526585766830629</v>
+      </c>
+      <c r="M31" t="n">
+        <v>688.6666666666667</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>688</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3491.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>143</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>13507.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2595</v>
+      </c>
+      <c r="U31" t="n">
+        <v>6.126938886081772</v>
+      </c>
+      <c r="V31" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.046592067696671</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>384555.6130952381</v>
+      </c>
+      <c r="C32" t="n">
+        <v>719.7648809523811</v>
+      </c>
+      <c r="D32" t="n">
+        <v>353580.5208333333</v>
+      </c>
+      <c r="E32" t="n">
+        <v>9189.377976190475</v>
+      </c>
+      <c r="F32" t="n">
+        <v>110.3333333333333</v>
+      </c>
+      <c r="G32" t="n">
+        <v>38</v>
+      </c>
+      <c r="H32" t="n">
+        <v>33197.66666666666</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2528</v>
+      </c>
+      <c r="J32" t="n">
+        <v>234.3215983282876</v>
+      </c>
+      <c r="K32" t="n">
+        <v>32.69610119047619</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.08105963493171</v>
+      </c>
+      <c r="M32" t="n">
+        <v>348581.8392857143</v>
+      </c>
+      <c r="N32" t="n">
+        <v>528</v>
+      </c>
+      <c r="O32" t="n">
+        <v>316865.5625</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2791.133928571428</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>118</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>32574</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3404</v>
+      </c>
+      <c r="U32" t="n">
+        <v>154.0378965922444</v>
+      </c>
+      <c r="V32" t="n">
+        <v>34.09</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.100093795411151</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>682249</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3804</v>
+      </c>
+      <c r="D33" t="n">
+        <v>700948</v>
+      </c>
+      <c r="E33" t="n">
+        <v>119</v>
+      </c>
+      <c r="F33" t="n">
+        <v>118</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>180298</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3440</v>
+      </c>
+      <c r="J33" t="n">
+        <v>250.7404069767442</v>
+      </c>
+      <c r="K33" t="n">
+        <v>113.54</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9733232707704423</v>
+      </c>
+      <c r="M33" t="n">
+        <v>682249</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3804</v>
+      </c>
+      <c r="O33" t="n">
+        <v>700948</v>
+      </c>
+      <c r="P33" t="n">
+        <v>119</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>118</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>180298</v>
+      </c>
+      <c r="T33" t="n">
+        <v>3440</v>
+      </c>
+      <c r="U33" t="n">
+        <v>250.7404069767442</v>
+      </c>
+      <c r="V33" t="n">
+        <v>113.54</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.9733232707704423</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2620.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31002.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9117981.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11318</v>
+      </c>
+      <c r="F34" t="n">
+        <v>113</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>14403</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3244.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.949092378038299</v>
+      </c>
+      <c r="K34" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0003610869132275265</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2620.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>31002.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9117981.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>11318</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>113</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>14403</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3244.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4.949092378038299</v>
+      </c>
+      <c r="V34" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0003610869132275265</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2181.668611271768</v>
+      </c>
+      <c r="C35" t="n">
+        <v>455.3902890689901</v>
+      </c>
+      <c r="D35" t="n">
+        <v>73470.79344431128</v>
+      </c>
+      <c r="E35" t="n">
+        <v>8923.067342500597</v>
+      </c>
+      <c r="F35" t="n">
+        <v>114.4897959183673</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.014577259475218</v>
+      </c>
+      <c r="H35" t="n">
+        <v>42673.33527696793</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2749.795918367347</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15.61499580632076</v>
+      </c>
+      <c r="K35" t="n">
+        <v>31.17254591363493</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.1665634644571815</v>
+      </c>
+      <c r="M35" t="n">
+        <v>854</v>
+      </c>
+      <c r="N35" t="n">
+        <v>198.6666666666667</v>
+      </c>
+      <c r="O35" t="n">
+        <v>17361</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2749</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>128</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>19733</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2912</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7.994788564621799</v>
+      </c>
+      <c r="V35" t="n">
+        <v>29.24333333333333</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.06163811445052087</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>471.625</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7042.055555555556</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3671200.194444444</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1872.375</v>
+      </c>
+      <c r="F36" t="n">
+        <v>75.125</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>64250</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3052.375</v>
+      </c>
+      <c r="J36" t="n">
+        <v>19.65153719264123</v>
+      </c>
+      <c r="K36" t="n">
+        <v>28.78361111111111</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0001451764007662467</v>
+      </c>
+      <c r="M36" t="n">
+        <v>292</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6876.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3693412</v>
+      </c>
+      <c r="P36" t="n">
+        <v>462</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>27905</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3243.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>9.234836054569918</v>
+      </c>
+      <c r="V36" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="W36" t="n">
+        <v>6.966392560342656e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8944.09090909091</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6243.607142857142</v>
+      </c>
+      <c r="D37" t="n">
+        <v>878145.7581168831</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4822.715909090909</v>
+      </c>
+      <c r="F37" t="n">
+        <v>110.0909090909091</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.272727272727272</v>
+      </c>
+      <c r="H37" t="n">
+        <v>96317.54545454546</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3237.545454545455</v>
+      </c>
+      <c r="J37" t="n">
+        <v>29.92201637546934</v>
+      </c>
+      <c r="K37" t="n">
+        <v>29.57436688311688</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.03271987753683219</v>
+      </c>
+      <c r="M37" t="n">
+        <v>629</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6655</v>
+      </c>
+      <c r="O37" t="n">
+        <v>610758.125</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1223</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>115</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>52425</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3416</v>
+      </c>
+      <c r="U37" t="n">
+        <v>16.60521042084168</v>
+      </c>
+      <c r="V37" t="n">
+        <v>30.74</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.001837144655565494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>kmeans</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>friend_nb_mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>listed_nb_mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>follower_nb_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>favorites_nb_mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>len_description_mean</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_nb_mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_user_count_mean</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>user_lifetime_mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>aggressivity_mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>visibility_mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ff_ratio_mean</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>friend_nb_median</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>listed_nb_median</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>follower_nb_median</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>favorites_nb_median</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>len_description_median</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_nb_median</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tweet_user_count_median</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>user_lifetime_median</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>aggressivity_median</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>visibility_median</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ff_ratio_median</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>494.1143093721622</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.370050155782134</v>
+      </c>
+      <c r="D2" t="n">
+        <v>523.1742006412459</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6143.794335538795</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38.64494748381792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.213542968151737</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6738.649221728721</v>
+      </c>
+      <c r="I2" t="n">
+        <v>736.3625087661317</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10.9817135980043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.43518113128507</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.657963390135219</v>
+      </c>
+      <c r="M2" t="n">
+        <v>227</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>137</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1587</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>27</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1660</v>
+      </c>
+      <c r="T2" t="n">
+        <v>746</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.982015193988754</v>
+      </c>
+      <c r="V2" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.649350649350649</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>606.1085490371988</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.485536964148462</v>
+      </c>
+      <c r="D3" t="n">
+        <v>884.4442964255473</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6332.815128375077</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31.45386081982841</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.953308188613034</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14653.87995192108</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2429.989610533151</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.383928393572186</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27.92963742010935</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.004113642278706</v>
+      </c>
+      <c r="M3" t="n">
+        <v>368</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>320</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2177</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>26</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6970</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2411</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.206615982668014</v>
+      </c>
+      <c r="V3" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.11988702455503</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1838.90159546019</v>
+      </c>
+      <c r="C4" t="n">
+        <v>81.75386498969137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12565.81657650058</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16923.34465150336</v>
+      </c>
+      <c r="F4" t="n">
+        <v>122.2196023803686</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.611304522254664</v>
+      </c>
+      <c r="H4" t="n">
+        <v>39681.66927140214</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2384.454978046226</v>
+      </c>
+      <c r="J4" t="n">
+        <v>19.98499982159002</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.8179075274575</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.434807918308211</v>
+      </c>
+      <c r="M4" t="n">
+        <v>690</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>791.6111111111111</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4046</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>129</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15539</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2483</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7.402283871961433</v>
+      </c>
+      <c r="V4" t="n">
+        <v>24.89958333333333</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9495339514217274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>